--- a/Mod_Korean/Lang/KR/Dialog/Drama/olderyoungersister.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/olderyoungersister.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr autoCompressPictures="1"/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="olderyoungersister" sheetId="1" r:id="rId3"/>
+    <sheet name="olderyoungersister" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="204">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -111,6 +111,9 @@
     <t xml:space="preserve">What's up, #brother2? </t>
   </si>
   <si>
+    <t xml:space="preserve">왜 그래, #brother2?</t>
+  </si>
+  <si>
     <t xml:space="preserve">change</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
   </si>
   <si>
     <t xml:space="preserve">I want you to change your hairstyle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">네 머리모양을 바꿨으면 좋겠어</t>
   </si>
   <si>
     <t xml:space="preserve">inject</t>
@@ -174,6 +180,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yes♪ Does this hairstyle suit me, #brother2? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">그래♪ 이 머리 어울려, #brother2?</t>
   </si>
   <si>
     <t xml:space="preserve">end</t>
@@ -224,6 +233,9 @@
     <t xml:space="preserve">#brother2? Are you really my #brother2? </t>
   </si>
   <si>
+    <t xml:space="preserve">#brother2? 정말로 우리 #brother2야?</t>
+  </si>
+  <si>
     <t xml:space="preserve">quiz1</t>
   </si>
   <si>
@@ -233,6 +245,9 @@
     <t xml:space="preserve">Yes.</t>
   </si>
   <si>
+    <t xml:space="preserve">네</t>
+  </si>
+  <si>
     <t xml:space="preserve">fail</t>
   </si>
   <si>
@@ -246,6 +261,9 @@
   </si>
   <si>
     <t xml:space="preserve">Buzz! Wrong answer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뿌뿌- 틀렸어.</t>
   </si>
   <si>
     <r>
@@ -283,6 +301,9 @@
     <t xml:space="preserve">This is not my real #brother2!! </t>
   </si>
   <si>
+    <t xml:space="preserve">이런 거, 진짜 #brother2가 아니야!!!</t>
+  </si>
+  <si>
     <t xml:space="preserve">slap</t>
   </si>
   <si>
@@ -294,30 +315,46 @@
 Okay then, if you're my #brother2, I'll give you some easy quizzes that you'll definitely be able to answer!</t>
   </si>
   <si>
+    <t xml:space="preserve">에, 진짜…?!
+그럼, 우리 #brother2라면 무조건 맞힐 수 있는 간단한 퀴즈를 낼게!</t>
+  </si>
+  <si>
     <t xml:space="preserve">問題：この中で「年上の妹」の意味はなんでしょう？</t>
   </si>
   <si>
     <t xml:space="preserve">Question: Which one means "older younger sister"?</t>
   </si>
   <si>
+    <t xml:space="preserve">문제: 이 중에 「연상의 여동생」의 의미는 뭘까요?</t>
+  </si>
+  <si>
     <t xml:space="preserve">生き別れた血の繋がった年下の女性</t>
   </si>
   <si>
     <t xml:space="preserve">A younger biological sister separated at birth.</t>
   </si>
   <si>
+    <t xml:space="preserve">생이별한 피가 이어진 연하의 여성</t>
+  </si>
+  <si>
     <t xml:space="preserve">生き別れた血の繋がった年上の女性</t>
   </si>
   <si>
     <t xml:space="preserve">An older biological sister separated at birth.</t>
   </si>
   <si>
+    <t xml:space="preserve">생이별한 피가 이어진 연상의 여성</t>
+  </si>
+  <si>
     <t xml:space="preserve">生き別れた血の繋がっていない年下の女性</t>
   </si>
   <si>
     <t xml:space="preserve">A younger non-biological sister separated at birth.</t>
   </si>
   <si>
+    <t xml:space="preserve">생이별한 피가 이어지지 않은 연하의 여성</t>
+  </si>
+  <si>
     <t xml:space="preserve">quiz2</t>
   </si>
   <si>
@@ -327,12 +364,18 @@
     <t xml:space="preserve">An older non-biological sister separated at birth.</t>
   </si>
   <si>
+    <t xml:space="preserve">생이별한 피가 이어지지 않은 연상의 여성</t>
+  </si>
+  <si>
     <t xml:space="preserve">この中に正解は無い</t>
   </si>
   <si>
     <t xml:space="preserve">None of the above are correct.</t>
   </si>
   <si>
+    <t xml:space="preserve">이 중에 정답은 없어</t>
+  </si>
+  <si>
     <t xml:space="preserve">answer_good</t>
   </si>
   <si>
@@ -342,48 +385,72 @@
     <t xml:space="preserve">Ding-dong. As expected of my #brother2! Now, I'll give you the next question!</t>
   </si>
   <si>
+    <t xml:space="preserve">딩동. 역시 우리 #brother2야! 그럼, 다음 문제를 낼게!</t>
+  </si>
+  <si>
     <t xml:space="preserve">問題：私が#brother2の部屋に内緒で隠しているものは何でしょう？</t>
   </si>
   <si>
     <t xml:space="preserve">Question: What am I secretly hiding in my #brother2's room? </t>
   </si>
   <si>
+    <t xml:space="preserve">문제: 내가 #brother2의 방에 몰래 숨긴 건 뭘까요?</t>
+  </si>
+  <si>
     <t xml:space="preserve">非常食のお菓子</t>
   </si>
   <si>
     <t xml:space="preserve">Emergency snack food.</t>
   </si>
   <si>
+    <t xml:space="preserve">비상용 과자</t>
+  </si>
+  <si>
     <t xml:space="preserve">#brother2のために愛を込めて作ったお弁当</t>
   </si>
   <si>
     <t xml:space="preserve">A bento made with love for my #brother2.</t>
   </si>
   <si>
+    <t xml:space="preserve">#brother2를 위해 사랑을 담아 만든 도시락</t>
+  </si>
+  <si>
     <t xml:space="preserve">#brother2への愛情溢れるお手紙</t>
   </si>
   <si>
     <t xml:space="preserve">A letter filled with love for my #brother2.</t>
   </si>
   <si>
+    <t xml:space="preserve">#brother2를 향한 사랑이 넘치는 편지</t>
+  </si>
+  <si>
     <t xml:space="preserve">これまでの記憶を詰め込んだタイムカプセル</t>
   </si>
   <si>
     <t xml:space="preserve">A time capsule filled with our memories.</t>
   </si>
   <si>
+    <t xml:space="preserve">지금까지의 추억을 가득 담은 타임 캡슐</t>
+  </si>
+  <si>
     <t xml:space="preserve">包丁</t>
   </si>
   <si>
     <t xml:space="preserve">A kitchen knife.</t>
   </si>
   <si>
+    <t xml:space="preserve">식칼</t>
+  </si>
+  <si>
     <t xml:space="preserve">なにも隠していない</t>
   </si>
   <si>
     <t xml:space="preserve">Nothing.</t>
   </si>
   <si>
+    <t xml:space="preserve">아무것도 숨기지 않았어</t>
+  </si>
+  <si>
     <t xml:space="preserve">quiz3</t>
   </si>
   <si>
@@ -393,42 +460,63 @@
     <t xml:space="preserve">Everything.</t>
   </si>
   <si>
+    <t xml:space="preserve">전부 다</t>
+  </si>
+  <si>
     <t xml:space="preserve">問題：一番強い盾とは何でしょう？ </t>
   </si>
   <si>
     <t xml:space="preserve">Question: What is the strongest shield?</t>
   </si>
   <si>
+    <t xml:space="preserve">문제: 가장 강한 방패는 뭘까요?</t>
+  </si>
+  <si>
     <t xml:space="preserve">鋼鉄の盾 </t>
   </si>
   <si>
     <t xml:space="preserve">A steel shield.</t>
   </si>
   <si>
+    <t xml:space="preserve">강철 방패</t>
+  </si>
+  <si>
     <t xml:space="preserve">魔法の盾 </t>
   </si>
   <si>
     <t xml:space="preserve">A magic shield.</t>
   </si>
   <si>
+    <t xml:space="preserve">마법 방패</t>
+  </si>
+  <si>
     <t xml:space="preserve">ルビナスの盾</t>
   </si>
   <si>
     <t xml:space="preserve">A rubinus shield.</t>
   </si>
   <si>
+    <t xml:space="preserve">루비너스 방패</t>
+  </si>
+  <si>
     <t xml:space="preserve">エーテルの盾</t>
   </si>
   <si>
     <t xml:space="preserve">An ether shield.</t>
   </si>
   <si>
+    <t xml:space="preserve">에테르 방패</t>
+  </si>
+  <si>
     <t xml:space="preserve">無敵の盾 </t>
   </si>
   <si>
     <t xml:space="preserve">An invincible shield.</t>
   </si>
   <si>
+    <t xml:space="preserve">무적의 방패</t>
+  </si>
+  <si>
     <t xml:space="preserve">quiz4</t>
   </si>
   <si>
@@ -438,24 +526,36 @@
     <t xml:space="preserve">Younger sister's smile.</t>
   </si>
   <si>
+    <t xml:space="preserve">여동생의 웃는 얼굴</t>
+  </si>
+  <si>
     <t xml:space="preserve">問題：私の好きなプチは？</t>
   </si>
   <si>
     <t xml:space="preserve">Question: What is my favorite Putit?</t>
   </si>
   <si>
+    <t xml:space="preserve">문제: 내가 좋아하는 쁘띠는?</t>
+  </si>
+  <si>
     <t xml:space="preserve">普通のプチ</t>
   </si>
   <si>
     <t xml:space="preserve">Regular Putit.</t>
   </si>
   <si>
+    <t xml:space="preserve">평범한 쁘띠</t>
+  </si>
+  <si>
     <t xml:space="preserve">べスプチ</t>
   </si>
   <si>
     <t xml:space="preserve">Red Putit.</t>
   </si>
   <si>
+    <t xml:space="preserve">베스쁘띠</t>
+  </si>
+  <si>
     <t xml:space="preserve">quiz5</t>
   </si>
   <si>
@@ -465,54 +565,81 @@
     <t xml:space="preserve">Snow Putit.</t>
   </si>
   <si>
+    <t xml:space="preserve">눈 쁘띠</t>
+  </si>
+  <si>
     <t xml:space="preserve">メタルプチ</t>
   </si>
   <si>
     <t xml:space="preserve">Metal Putit.</t>
   </si>
   <si>
+    <t xml:space="preserve">메탈 쁘띠</t>
+  </si>
+  <si>
     <t xml:space="preserve">キングプチ</t>
   </si>
   <si>
     <t xml:space="preserve">King Putit.</t>
   </si>
   <si>
+    <t xml:space="preserve">킹 쁘띠</t>
+  </si>
+  <si>
     <t xml:space="preserve">エンゼルプチ</t>
   </si>
   <si>
     <t xml:space="preserve">Angel Putit.</t>
   </si>
   <si>
+    <t xml:space="preserve">엔젤 쁘띠</t>
+  </si>
+  <si>
     <t xml:space="preserve">プチつむりん</t>
   </si>
   <si>
     <t xml:space="preserve">Putit Snail.</t>
   </si>
   <si>
+    <t xml:space="preserve">쁘띠 달팽이</t>
+  </si>
+  <si>
     <t xml:space="preserve">はぐれプチ</t>
   </si>
   <si>
     <t xml:space="preserve">Stray Putit.</t>
   </si>
   <si>
+    <t xml:space="preserve">미아 쁘띠</t>
+  </si>
+  <si>
     <t xml:space="preserve">ピンポーン。さすがは私の#brother2ね！じゃあ、最後の問題を出すね！</t>
   </si>
   <si>
     <t xml:space="preserve">Ding-dong. As expected of my #brother2! Now, for the last question!</t>
   </si>
   <si>
+    <t xml:space="preserve">딩동. 역시 우리 #brother2야! 그럼, 마지막 문제를 낼게!</t>
+  </si>
+  <si>
     <t xml:space="preserve">問題：私が#brother2に最も望むものはなんでしょう？</t>
   </si>
   <si>
     <t xml:space="preserve">Question: What do I want most from my #brother2?</t>
   </si>
   <si>
+    <t xml:space="preserve">문제: 내가 #brother2에게 가장 바라는 건 뭘까요?</t>
+  </si>
+  <si>
     <t xml:space="preserve">時間をたくさん共有すること</t>
   </si>
   <si>
     <t xml:space="preserve">To spend a lot of time together.</t>
   </si>
   <si>
+    <t xml:space="preserve">함께 시간을 많이 보내는 것</t>
+  </si>
+  <si>
     <t xml:space="preserve">final</t>
   </si>
   <si>
@@ -522,30 +649,45 @@
     <t xml:space="preserve">To always be together.</t>
   </si>
   <si>
+    <t xml:space="preserve">항상 함께 있어주는 것</t>
+  </si>
+  <si>
     <t xml:space="preserve">絶対に裏切らないこと</t>
   </si>
   <si>
     <t xml:space="preserve">To never betray me.</t>
   </si>
   <si>
+    <t xml:space="preserve">절대로 배신하지 않는 것</t>
+  </si>
+  <si>
     <t xml:space="preserve">頭をなでなでしてくれること</t>
   </si>
   <si>
     <t xml:space="preserve">To pat my head.</t>
   </si>
   <si>
+    <t xml:space="preserve">머리를 쓰담쓰담 해주는 것</t>
+  </si>
+  <si>
     <t xml:space="preserve">叱ってくれること</t>
   </si>
   <si>
     <t xml:space="preserve">To scold me.</t>
   </si>
   <si>
+    <t xml:space="preserve">야단쳐 주는 것</t>
+  </si>
+  <si>
     <t xml:space="preserve">無限のお小遣い</t>
   </si>
   <si>
     <t xml:space="preserve">Unlimited allowance.</t>
   </si>
   <si>
+    <t xml:space="preserve">무한한 용돈</t>
+  </si>
+  <si>
     <t xml:space="preserve">All of the above.</t>
   </si>
   <si>
@@ -556,13 +698,16 @@
   </si>
   <si>
     <t xml:space="preserve">Ding-dong. As expected of my #brother2!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">딩동. 역시 우리 #brother2야!</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">全問正解おめでとう。それじゃあお小遣い頂戴</t>
@@ -581,7 +726,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">♪</t>
@@ -591,6 +736,9 @@
     <t xml:space="preserve">Congratulations on getting all the questions right. Now, give me my allowance, #brother2♪</t>
   </si>
   <si>
+    <t xml:space="preserve">다 맞힌 거 축하해. 그럼 용돈 줘 #brother2♪</t>
+  </si>
+  <si>
     <t xml:space="preserve">final_yes</t>
   </si>
   <si>
@@ -603,6 +751,9 @@
     <t xml:space="preserve">Hand over 10,000 Orens.</t>
   </si>
   <si>
+    <t xml:space="preserve">10,000 오렌을 준다</t>
+  </si>
+  <si>
     <t xml:space="preserve">final_no</t>
   </si>
   <si>
@@ -610,13 +761,16 @@
   </si>
   <si>
     <t xml:space="preserve">I don't have it on me right now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지금은 돈이 없어</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">わぁ、本物の</t>
@@ -635,7 +789,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">みーつけた！</t>
@@ -645,6 +799,9 @@
     <t xml:space="preserve">Wow, I found my real #brother2! </t>
   </si>
   <si>
+    <t xml:space="preserve">와아, 진짜 #brother2 찾-았다!</t>
+  </si>
+  <si>
     <t xml:space="preserve">olderyoungersister,1</t>
   </si>
   <si>
@@ -655,7 +812,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">そっかぁ…</t>
@@ -674,7 +831,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">は本物の</t>
@@ -693,7 +850,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">じゃなかったんだね…</t>
@@ -701,166 +858,6 @@
   </si>
   <si>
     <t xml:space="preserve">I see... so you weren't my real #brother2 after all... </t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">왜 그래, #brother2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">머리모양을 바꾸고 싶다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그래♪ 이 머리 어울려, #brother2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#brother2? 정말로 내 #brother2야?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뿌뿌- 틀렸어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이런 거, 진짜 #brother2가 아니야!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">에, 진짜…?!
-그럼, 내 #brother2라면 무조건 맞힐 수 있는 간단한 퀴즈를 낼게!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문제: 이 중에 「연상 여동생」의 의미는 뭘까요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">생이별한 피가 이어진 연하의 여성</t>
-  </si>
-  <si>
-    <t xml:space="preserve">생이별한 피가 이어진 연상의 여성</t>
-  </si>
-  <si>
-    <t xml:space="preserve">생이별한 피가 이어지지 않은 연하의 여성</t>
-  </si>
-  <si>
-    <t xml:space="preserve">생이별한 피가 이어지지 않은 연상의 여성</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 중에 정답은 없다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">딩동. 역시 내 #brother2야! 그럼, 다음 문제를 낼게!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문제: 내가 #brother2의 방에 몰래 숨긴 건 뭘까요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">비상용 과자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#brother2를 위해 사랑을 담아 만든 도시락</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#brother2에 대한 사랑이 넘치는 편지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지금까지의 추억을 가득 담은 타임 캡슐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">식칼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아무것도 숨기지 않았다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전부 다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문제: 가장 강한 방패는 뭘까요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강철 방패</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마법 방패</t>
-  </si>
-  <si>
-    <t xml:space="preserve">루비너스 방패</t>
-  </si>
-  <si>
-    <t xml:space="preserve">에테르 방패</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무적의 방패</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생의 웃는 얼굴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문제: 내가 좋아하는 쁘띠는?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">평범한 쁘띠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">베스쁘띠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 쁘띠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">메탈 쁘띠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">킹 쁘띠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엔젤 쁘띠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쁘띠 달팽이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미아 쁘띠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">딩동. 역시 내 #brother2야! 그럼, 마지막 문제를 낼게!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문제: 내가 #brother2에게 가장 바라는 건 뭘까요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">함께 시간을 많이 보내는 것</t>
-  </si>
-  <si>
-    <t xml:space="preserve">항상 함께 있어주는 것</t>
-  </si>
-  <si>
-    <t xml:space="preserve">절대로 배신하지 않는 것</t>
-  </si>
-  <si>
-    <t xml:space="preserve">머리를 쓰담쓰담 해주는 것</t>
-  </si>
-  <si>
-    <t xml:space="preserve">야단쳐 주는 것</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무한한 용돈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">딩동. 역시 내 #brother2야!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다 맞힌 거 축하해. 그럼 용돈 줘 #brother2♪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,000 오렌을 준다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지금은 돈이 없다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">와아, 진짜 #brother2 찾-았다!</t>
   </si>
   <si>
     <t xml:space="preserve">그렇구나… #brother2는 진짜 #brother2가 아니구나…</t>
@@ -884,25 +881,25 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -948,7 +945,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -957,86 +954,90 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment/>
-      <protection locked="1"/>
+  <cellXfs count="15">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1050,13 +1051,13 @@
   <dxfs count="1">
     <dxf>
       <font>
+        <name val="游ゴシック"/>
+        <charset val="128"/>
+        <family val="2"/>
         <color rgb="FFCC0000"/>
-        <name val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -1232,32 +1233,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K119" sqref="K119"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="P112" activeCellId="0" sqref="P112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.41" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.57" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.99" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85" style="1" customWidth="1"/>
-    <col min="7" max="8" width="7.09" style="1" customWidth="1"/>
-    <col min="9" max="9" width="42.14" style="2" customWidth="1"/>
-    <col min="10" max="10" width="53.28" style="2" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="7.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="42.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="53.28"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1292,23 +1293,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
-      <c r="H2" s="1">
-        <f>MAX(H4:H1048576)</f>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="1" t="n">
+        <f aca="false">MAX(H4:H1048576)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="5" ht="12.8">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="12.8">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="12.8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1316,12 +1317,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="12.8">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="12.8">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1329,35 +1330,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="12.8">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" ht="13.8">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" ht="13.8">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" ht="13.8">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" ht="12.8">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" ht="12.8">
-      <c r="H16" s="1">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -1366,1282 +1367,1282 @@
       <c r="J16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" ht="13.8">
+      <c r="K16" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="1">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1" t="n">
         <v>56</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" ht="12.8">
+        <v>24</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G18" s="5"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" ht="12.8">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" ht="12.8">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" ht="12.8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" ht="12.8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" ht="12.8">
-      <c r="H25" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="1" t="n">
         <v>57</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" ht="12.8">
+        <v>33</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" ht="13.8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" ht="12.8">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" ht="12.8">
-      <c r="H29" s="1">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" ht="13.8">
+        <v>37</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I30" s="8"/>
     </row>
-    <row r="31" ht="13.8">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="1">
+        <v>22</v>
+      </c>
+      <c r="H31" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" ht="12.8">
+        <v>41</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" ht="12.8">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" ht="12.8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" ht="12.8">
-      <c r="H37" s="1">
-        <v>4</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" ht="12.8">
-      <c r="H38" s="1">
-        <v>5</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" ht="12.8">
-      <c r="D39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" ht="12.8">
-      <c r="B40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" ht="12.8">
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" ht="12.8">
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" ht="12.8">
-      <c r="A43" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" ht="43.25">
-      <c r="H44" s="1">
+    <row r="44" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" ht="12.8">
-      <c r="H45" s="1">
+        <v>54</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H45" s="1" t="n">
         <v>7</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K45" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" ht="12.8">
+        <v>57</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="1">
+        <v>22</v>
+      </c>
+      <c r="H46" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K46" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" ht="12.8">
+        <v>60</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="1">
+        <v>22</v>
+      </c>
+      <c r="H47" s="1" t="n">
         <v>9</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" ht="12.8">
+        <v>63</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="1">
+        <v>22</v>
+      </c>
+      <c r="H48" s="1" t="n">
         <v>10</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" ht="12.8">
+        <v>66</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="5" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="1">
+        <v>22</v>
+      </c>
+      <c r="H49" s="1" t="n">
         <v>11</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" ht="12.8">
+        <v>70</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="1">
+        <v>22</v>
+      </c>
+      <c r="H50" s="1" t="n">
         <v>12</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K50" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" ht="12.8">
+        <v>73</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I51" s="1"/>
     </row>
-    <row r="52" ht="12.8">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I52" s="1"/>
     </row>
-    <row r="53" ht="12.8">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" ht="15">
-      <c r="D54" s="13" t="s">
-        <v>39</v>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" ht="12.8">
-      <c r="H55" s="1">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H55" s="1" t="n">
         <v>13</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K55" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" ht="12.8">
-      <c r="H56" s="1">
+        <v>77</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H56" s="1" t="n">
         <v>14</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K56" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="57" ht="12.8">
+        <v>80</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="1">
+        <v>22</v>
+      </c>
+      <c r="H57" s="1" t="n">
         <v>15</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K57" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" ht="12.8">
+        <v>83</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" s="1">
+        <v>22</v>
+      </c>
+      <c r="H58" s="1" t="n">
         <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K58" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" ht="12.8">
+        <v>86</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" s="1">
+        <v>22</v>
+      </c>
+      <c r="H59" s="1" t="n">
         <v>17</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K59" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" ht="12.8">
+        <v>89</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60" s="1">
+        <v>22</v>
+      </c>
+      <c r="H60" s="1" t="n">
         <v>18</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K60" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" ht="12.8">
+        <v>92</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H61" s="1">
+        <v>22</v>
+      </c>
+      <c r="H61" s="1" t="n">
         <v>19</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K61" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="62" ht="12.8">
+        <v>95</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="1">
+        <v>22</v>
+      </c>
+      <c r="H62" s="1" t="n">
         <v>20</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K62" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" ht="12.8">
+        <v>98</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="H63" s="1">
-        <v>21</v>
-      </c>
       <c r="I63" s="1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K63" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" ht="12.8">
+        <v>102</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I64" s="1"/>
     </row>
-    <row r="65" ht="12.8">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I65" s="1"/>
     </row>
-    <row r="66" ht="12.8">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K68" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" ht="15">
-      <c r="D67" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" ht="12.8">
-      <c r="H68" s="1">
-        <v>22</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K68" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" ht="12.8">
-      <c r="H69" s="1">
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H69" s="1" t="n">
         <v>23</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K69" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="70" ht="12.8">
+        <v>105</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70" s="1">
+        <v>22</v>
+      </c>
+      <c r="H70" s="1" t="n">
         <v>24</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K70" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" ht="12.8">
+        <v>108</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71" s="1">
+        <v>22</v>
+      </c>
+      <c r="H71" s="1" t="n">
         <v>25</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" ht="12.8">
+        <v>111</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H72" s="1">
+        <v>22</v>
+      </c>
+      <c r="H72" s="1" t="n">
         <v>26</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K72" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="73" ht="12.8">
+        <v>114</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H73" s="1">
+        <v>22</v>
+      </c>
+      <c r="H73" s="1" t="n">
         <v>27</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K73" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74" ht="12.8">
+        <v>117</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H74" s="1">
+        <v>22</v>
+      </c>
+      <c r="H74" s="1" t="n">
         <v>28</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K74" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="75" ht="12.8">
+        <v>120</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" s="1">
+        <v>22</v>
+      </c>
+      <c r="H75" s="1" t="n">
         <v>29</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K75" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" ht="12.8">
+        <v>124</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I76" s="1"/>
     </row>
-    <row r="77" ht="12.8">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" ht="15">
-      <c r="D78" s="13" t="s">
-        <v>39</v>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" ht="12.8">
-      <c r="H79" s="1">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H79" s="1" t="n">
         <v>30</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K79" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="80" ht="12.8">
-      <c r="H80" s="1">
+        <v>77</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="1" t="n">
         <v>31</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K80" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="81" ht="12.8">
+        <v>127</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81" s="1">
+        <v>22</v>
+      </c>
+      <c r="H81" s="1" t="n">
         <v>32</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K81" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" ht="12.8">
+        <v>130</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H82" s="1">
+        <v>22</v>
+      </c>
+      <c r="H82" s="1" t="n">
         <v>33</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K82" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="83" ht="12.8">
+        <v>133</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H83" s="1">
+        <v>22</v>
+      </c>
+      <c r="H83" s="1" t="n">
         <v>34</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K83" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="84" ht="12.8">
+        <v>137</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84" s="1">
+        <v>22</v>
+      </c>
+      <c r="H84" s="1" t="n">
         <v>35</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K84" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="85" ht="12.8">
+        <v>140</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H85" s="1">
+        <v>22</v>
+      </c>
+      <c r="H85" s="1" t="n">
         <v>36</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K85" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="86" ht="12.8">
+        <v>143</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H86" s="1">
+        <v>22</v>
+      </c>
+      <c r="H86" s="1" t="n">
         <v>37</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K86" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="87" ht="12.8">
+        <v>146</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H87" s="1">
+        <v>22</v>
+      </c>
+      <c r="H87" s="1" t="n">
         <v>38</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K87" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="88" ht="12.8">
+        <v>149</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H88" s="1">
+        <v>22</v>
+      </c>
+      <c r="H88" s="1" t="n">
         <v>39</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K88" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="89" ht="12.8">
+        <v>152</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I89" s="1"/>
     </row>
-    <row r="90" ht="12.8">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I90" s="1"/>
     </row>
-    <row r="91" ht="12.8">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" ht="15">
-      <c r="D92" s="13" t="s">
-        <v>39</v>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" ht="12.8">
-      <c r="H93" s="1">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H93" s="1" t="n">
         <v>40</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K93" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="94" ht="12.8">
-      <c r="H94" s="1">
+        <v>155</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H94" s="1" t="n">
         <v>41</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K94" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="95" ht="12.8">
+        <v>158</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H95" s="1">
+        <v>22</v>
+      </c>
+      <c r="H95" s="1" t="n">
         <v>42</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K95" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="96" ht="12.8">
+        <v>161</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H96" s="1">
+        <v>22</v>
+      </c>
+      <c r="H96" s="1" t="n">
         <v>43</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K96" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" ht="12.8">
+        <v>165</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H97" s="1">
+        <v>22</v>
+      </c>
+      <c r="H97" s="1" t="n">
         <v>44</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K97" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="98" ht="12.8">
+        <v>168</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H98" s="1">
+        <v>22</v>
+      </c>
+      <c r="H98" s="1" t="n">
         <v>45</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K98" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" ht="12.8">
+        <v>171</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H99" s="1">
+        <v>22</v>
+      </c>
+      <c r="H99" s="1" t="n">
         <v>46</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="K99" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="100" ht="12.8">
+        <v>174</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H100" s="1">
+        <v>22</v>
+      </c>
+      <c r="H100" s="1" t="n">
         <v>47</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K100" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="101" ht="12.8">
+        <v>177</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101" s="1">
+        <v>22</v>
+      </c>
+      <c r="H101" s="1" t="n">
         <v>48</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K101" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="102" ht="12.8">
+        <v>179</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H102" s="1">
+        <v>22</v>
+      </c>
+      <c r="H102" s="1" t="n">
         <v>49</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K102" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="103" ht="12.8">
+        <v>73</v>
+      </c>
+      <c r="K102" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I103" s="1"/>
     </row>
-    <row r="105" ht="12.8">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" ht="15">
-      <c r="D106" s="13" t="s">
-        <v>39</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D106" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="107" ht="12.8">
-      <c r="H107" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H107" s="1" t="n">
         <v>50</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K107" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="108" ht="13.4">
-      <c r="H108" s="1">
+        <v>182</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H108" s="1" t="n">
         <v>51</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K108" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="109" ht="12.8">
+        <v>185</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="1" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H109" s="1">
+        <v>22</v>
+      </c>
+      <c r="H109" s="1" t="n">
         <v>52</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K109" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="110" ht="12.8">
+        <v>190</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H110" s="1">
+        <v>22</v>
+      </c>
+      <c r="H110" s="1" t="n">
         <v>53</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K110" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="112" ht="12.8">
+        <v>194</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="113" ht="13.4">
-      <c r="H113" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H113" s="1" t="n">
         <v>54</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K113" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="114" ht="22.35">
+        <v>197</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D114" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" ht="12.8">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D115" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" ht="12.8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118" ht="12.8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" ht="12.8">
-      <c r="H119" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H119" s="1" t="n">
         <v>55</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="K119" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="120" ht="12.8">
+        <v>202</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H20:H31 I32 H4:H17 I18:I19 H33:H1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/Mod_Korean/Lang/KR/Dialog/Drama/olderyoungersister.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/olderyoungersister.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr autoCompressPictures="1"/>
+  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="olderyoungersister" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="olderyoungersister" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="205">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -111,9 +111,6 @@
     <t xml:space="preserve">What's up, #brother2? </t>
   </si>
   <si>
-    <t xml:space="preserve">왜 그래, #brother2?</t>
-  </si>
-  <si>
     <t xml:space="preserve">change</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
   </si>
   <si>
     <t xml:space="preserve">I want you to change your hairstyle. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">네 머리모양을 바꿨으면 좋겠어</t>
   </si>
   <si>
     <t xml:space="preserve">inject</t>
@@ -180,9 +174,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yes♪ Does this hairstyle suit me, #brother2? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">그래♪ 이 머리 어울려, #brother2?</t>
   </si>
   <si>
     <t xml:space="preserve">end</t>
@@ -233,9 +224,6 @@
     <t xml:space="preserve">#brother2? Are you really my #brother2? </t>
   </si>
   <si>
-    <t xml:space="preserve">#brother2? 정말로 우리 #brother2야?</t>
-  </si>
-  <si>
     <t xml:space="preserve">quiz1</t>
   </si>
   <si>
@@ -245,9 +233,6 @@
     <t xml:space="preserve">Yes.</t>
   </si>
   <si>
-    <t xml:space="preserve">네</t>
-  </si>
-  <si>
     <t xml:space="preserve">fail</t>
   </si>
   <si>
@@ -261,9 +246,6 @@
   </si>
   <si>
     <t xml:space="preserve">Buzz! Wrong answer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뿌뿌- 틀렸어.</t>
   </si>
   <si>
     <r>
@@ -301,9 +283,6 @@
     <t xml:space="preserve">This is not my real #brother2!! </t>
   </si>
   <si>
-    <t xml:space="preserve">이런 거, 진짜 #brother2가 아니야!!!</t>
-  </si>
-  <si>
     <t xml:space="preserve">slap</t>
   </si>
   <si>
@@ -315,46 +294,30 @@
 Okay then, if you're my #brother2, I'll give you some easy quizzes that you'll definitely be able to answer!</t>
   </si>
   <si>
-    <t xml:space="preserve">에, 진짜…?!
-그럼, 우리 #brother2라면 무조건 맞힐 수 있는 간단한 퀴즈를 낼게!</t>
-  </si>
-  <si>
     <t xml:space="preserve">問題：この中で「年上の妹」の意味はなんでしょう？</t>
   </si>
   <si>
     <t xml:space="preserve">Question: Which one means "older younger sister"?</t>
   </si>
   <si>
-    <t xml:space="preserve">문제: 이 중에 「연상의 여동생」의 의미는 뭘까요?</t>
-  </si>
-  <si>
     <t xml:space="preserve">生き別れた血の繋がった年下の女性</t>
   </si>
   <si>
     <t xml:space="preserve">A younger biological sister separated at birth.</t>
   </si>
   <si>
-    <t xml:space="preserve">생이별한 피가 이어진 연하의 여성</t>
-  </si>
-  <si>
     <t xml:space="preserve">生き別れた血の繋がった年上の女性</t>
   </si>
   <si>
     <t xml:space="preserve">An older biological sister separated at birth.</t>
   </si>
   <si>
-    <t xml:space="preserve">생이별한 피가 이어진 연상의 여성</t>
-  </si>
-  <si>
     <t xml:space="preserve">生き別れた血の繋がっていない年下の女性</t>
   </si>
   <si>
     <t xml:space="preserve">A younger non-biological sister separated at birth.</t>
   </si>
   <si>
-    <t xml:space="preserve">생이별한 피가 이어지지 않은 연하의 여성</t>
-  </si>
-  <si>
     <t xml:space="preserve">quiz2</t>
   </si>
   <si>
@@ -364,18 +327,12 @@
     <t xml:space="preserve">An older non-biological sister separated at birth.</t>
   </si>
   <si>
-    <t xml:space="preserve">생이별한 피가 이어지지 않은 연상의 여성</t>
-  </si>
-  <si>
     <t xml:space="preserve">この中に正解は無い</t>
   </si>
   <si>
     <t xml:space="preserve">None of the above are correct.</t>
   </si>
   <si>
-    <t xml:space="preserve">이 중에 정답은 없어</t>
-  </si>
-  <si>
     <t xml:space="preserve">answer_good</t>
   </si>
   <si>
@@ -385,72 +342,48 @@
     <t xml:space="preserve">Ding-dong. As expected of my #brother2! Now, I'll give you the next question!</t>
   </si>
   <si>
-    <t xml:space="preserve">딩동. 역시 우리 #brother2야! 그럼, 다음 문제를 낼게!</t>
-  </si>
-  <si>
     <t xml:space="preserve">問題：私が#brother2の部屋に内緒で隠しているものは何でしょう？</t>
   </si>
   <si>
     <t xml:space="preserve">Question: What am I secretly hiding in my #brother2's room? </t>
   </si>
   <si>
-    <t xml:space="preserve">문제: 내가 #brother2의 방에 몰래 숨긴 건 뭘까요?</t>
-  </si>
-  <si>
     <t xml:space="preserve">非常食のお菓子</t>
   </si>
   <si>
     <t xml:space="preserve">Emergency snack food.</t>
   </si>
   <si>
-    <t xml:space="preserve">비상용 과자</t>
-  </si>
-  <si>
     <t xml:space="preserve">#brother2のために愛を込めて作ったお弁当</t>
   </si>
   <si>
     <t xml:space="preserve">A bento made with love for my #brother2.</t>
   </si>
   <si>
-    <t xml:space="preserve">#brother2를 위해 사랑을 담아 만든 도시락</t>
-  </si>
-  <si>
     <t xml:space="preserve">#brother2への愛情溢れるお手紙</t>
   </si>
   <si>
     <t xml:space="preserve">A letter filled with love for my #brother2.</t>
   </si>
   <si>
-    <t xml:space="preserve">#brother2를 향한 사랑이 넘치는 편지</t>
-  </si>
-  <si>
     <t xml:space="preserve">これまでの記憶を詰め込んだタイムカプセル</t>
   </si>
   <si>
     <t xml:space="preserve">A time capsule filled with our memories.</t>
   </si>
   <si>
-    <t xml:space="preserve">지금까지의 추억을 가득 담은 타임 캡슐</t>
-  </si>
-  <si>
     <t xml:space="preserve">包丁</t>
   </si>
   <si>
     <t xml:space="preserve">A kitchen knife.</t>
   </si>
   <si>
-    <t xml:space="preserve">식칼</t>
-  </si>
-  <si>
     <t xml:space="preserve">なにも隠していない</t>
   </si>
   <si>
     <t xml:space="preserve">Nothing.</t>
   </si>
   <si>
-    <t xml:space="preserve">아무것도 숨기지 않았어</t>
-  </si>
-  <si>
     <t xml:space="preserve">quiz3</t>
   </si>
   <si>
@@ -460,63 +393,42 @@
     <t xml:space="preserve">Everything.</t>
   </si>
   <si>
-    <t xml:space="preserve">전부 다</t>
-  </si>
-  <si>
     <t xml:space="preserve">問題：一番強い盾とは何でしょう？ </t>
   </si>
   <si>
     <t xml:space="preserve">Question: What is the strongest shield?</t>
   </si>
   <si>
-    <t xml:space="preserve">문제: 가장 강한 방패는 뭘까요?</t>
-  </si>
-  <si>
     <t xml:space="preserve">鋼鉄の盾 </t>
   </si>
   <si>
     <t xml:space="preserve">A steel shield.</t>
   </si>
   <si>
-    <t xml:space="preserve">강철 방패</t>
-  </si>
-  <si>
     <t xml:space="preserve">魔法の盾 </t>
   </si>
   <si>
     <t xml:space="preserve">A magic shield.</t>
   </si>
   <si>
-    <t xml:space="preserve">마법 방패</t>
-  </si>
-  <si>
     <t xml:space="preserve">ルビナスの盾</t>
   </si>
   <si>
     <t xml:space="preserve">A rubinus shield.</t>
   </si>
   <si>
-    <t xml:space="preserve">루비너스 방패</t>
-  </si>
-  <si>
     <t xml:space="preserve">エーテルの盾</t>
   </si>
   <si>
     <t xml:space="preserve">An ether shield.</t>
   </si>
   <si>
-    <t xml:space="preserve">에테르 방패</t>
-  </si>
-  <si>
     <t xml:space="preserve">無敵の盾 </t>
   </si>
   <si>
     <t xml:space="preserve">An invincible shield.</t>
   </si>
   <si>
-    <t xml:space="preserve">무적의 방패</t>
-  </si>
-  <si>
     <t xml:space="preserve">quiz4</t>
   </si>
   <si>
@@ -526,36 +438,24 @@
     <t xml:space="preserve">Younger sister's smile.</t>
   </si>
   <si>
-    <t xml:space="preserve">여동생의 웃는 얼굴</t>
-  </si>
-  <si>
     <t xml:space="preserve">問題：私の好きなプチは？</t>
   </si>
   <si>
     <t xml:space="preserve">Question: What is my favorite Putit?</t>
   </si>
   <si>
-    <t xml:space="preserve">문제: 내가 좋아하는 쁘띠는?</t>
-  </si>
-  <si>
     <t xml:space="preserve">普通のプチ</t>
   </si>
   <si>
     <t xml:space="preserve">Regular Putit.</t>
   </si>
   <si>
-    <t xml:space="preserve">평범한 쁘띠</t>
-  </si>
-  <si>
     <t xml:space="preserve">べスプチ</t>
   </si>
   <si>
     <t xml:space="preserve">Red Putit.</t>
   </si>
   <si>
-    <t xml:space="preserve">베스쁘띠</t>
-  </si>
-  <si>
     <t xml:space="preserve">quiz5</t>
   </si>
   <si>
@@ -565,81 +465,54 @@
     <t xml:space="preserve">Snow Putit.</t>
   </si>
   <si>
-    <t xml:space="preserve">눈 쁘띠</t>
-  </si>
-  <si>
     <t xml:space="preserve">メタルプチ</t>
   </si>
   <si>
     <t xml:space="preserve">Metal Putit.</t>
   </si>
   <si>
-    <t xml:space="preserve">메탈 쁘띠</t>
-  </si>
-  <si>
     <t xml:space="preserve">キングプチ</t>
   </si>
   <si>
     <t xml:space="preserve">King Putit.</t>
   </si>
   <si>
-    <t xml:space="preserve">킹 쁘띠</t>
-  </si>
-  <si>
     <t xml:space="preserve">エンゼルプチ</t>
   </si>
   <si>
     <t xml:space="preserve">Angel Putit.</t>
   </si>
   <si>
-    <t xml:space="preserve">엔젤 쁘띠</t>
-  </si>
-  <si>
     <t xml:space="preserve">プチつむりん</t>
   </si>
   <si>
     <t xml:space="preserve">Putit Snail.</t>
   </si>
   <si>
-    <t xml:space="preserve">쁘띠 달팽이</t>
-  </si>
-  <si>
     <t xml:space="preserve">はぐれプチ</t>
   </si>
   <si>
     <t xml:space="preserve">Stray Putit.</t>
   </si>
   <si>
-    <t xml:space="preserve">미아 쁘띠</t>
-  </si>
-  <si>
     <t xml:space="preserve">ピンポーン。さすがは私の#brother2ね！じゃあ、最後の問題を出すね！</t>
   </si>
   <si>
     <t xml:space="preserve">Ding-dong. As expected of my #brother2! Now, for the last question!</t>
   </si>
   <si>
-    <t xml:space="preserve">딩동. 역시 우리 #brother2야! 그럼, 마지막 문제를 낼게!</t>
-  </si>
-  <si>
     <t xml:space="preserve">問題：私が#brother2に最も望むものはなんでしょう？</t>
   </si>
   <si>
     <t xml:space="preserve">Question: What do I want most from my #brother2?</t>
   </si>
   <si>
-    <t xml:space="preserve">문제: 내가 #brother2에게 가장 바라는 건 뭘까요?</t>
-  </si>
-  <si>
     <t xml:space="preserve">時間をたくさん共有すること</t>
   </si>
   <si>
     <t xml:space="preserve">To spend a lot of time together.</t>
   </si>
   <si>
-    <t xml:space="preserve">함께 시간을 많이 보내는 것</t>
-  </si>
-  <si>
     <t xml:space="preserve">final</t>
   </si>
   <si>
@@ -649,45 +522,30 @@
     <t xml:space="preserve">To always be together.</t>
   </si>
   <si>
-    <t xml:space="preserve">항상 함께 있어주는 것</t>
-  </si>
-  <si>
     <t xml:space="preserve">絶対に裏切らないこと</t>
   </si>
   <si>
     <t xml:space="preserve">To never betray me.</t>
   </si>
   <si>
-    <t xml:space="preserve">절대로 배신하지 않는 것</t>
-  </si>
-  <si>
     <t xml:space="preserve">頭をなでなでしてくれること</t>
   </si>
   <si>
     <t xml:space="preserve">To pat my head.</t>
   </si>
   <si>
-    <t xml:space="preserve">머리를 쓰담쓰담 해주는 것</t>
-  </si>
-  <si>
     <t xml:space="preserve">叱ってくれること</t>
   </si>
   <si>
     <t xml:space="preserve">To scold me.</t>
   </si>
   <si>
-    <t xml:space="preserve">야단쳐 주는 것</t>
-  </si>
-  <si>
     <t xml:space="preserve">無限のお小遣い</t>
   </si>
   <si>
     <t xml:space="preserve">Unlimited allowance.</t>
   </si>
   <si>
-    <t xml:space="preserve">무한한 용돈</t>
-  </si>
-  <si>
     <t xml:space="preserve">All of the above.</t>
   </si>
   <si>
@@ -698,16 +556,13 @@
   </si>
   <si>
     <t xml:space="preserve">Ding-dong. As expected of my #brother2!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">딩동. 역시 우리 #brother2야!</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">全問正解おめでとう。それじゃあお小遣い頂戴</t>
@@ -726,7 +581,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">♪</t>
@@ -736,9 +591,6 @@
     <t xml:space="preserve">Congratulations on getting all the questions right. Now, give me my allowance, #brother2♪</t>
   </si>
   <si>
-    <t xml:space="preserve">다 맞힌 거 축하해. 그럼 용돈 줘 #brother2♪</t>
-  </si>
-  <si>
     <t xml:space="preserve">final_yes</t>
   </si>
   <si>
@@ -751,9 +603,6 @@
     <t xml:space="preserve">Hand over 10,000 Orens.</t>
   </si>
   <si>
-    <t xml:space="preserve">10,000 오렌을 준다</t>
-  </si>
-  <si>
     <t xml:space="preserve">final_no</t>
   </si>
   <si>
@@ -761,16 +610,13 @@
   </si>
   <si>
     <t xml:space="preserve">I don't have it on me right now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지금은 돈이 없어</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">わぁ、本物の</t>
@@ -789,7 +635,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">みーつけた！</t>
@@ -799,9 +645,6 @@
     <t xml:space="preserve">Wow, I found my real #brother2! </t>
   </si>
   <si>
-    <t xml:space="preserve">와아, 진짜 #brother2 찾-았다!</t>
-  </si>
-  <si>
     <t xml:space="preserve">olderyoungersister,1</t>
   </si>
   <si>
@@ -812,7 +655,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">そっかぁ…</t>
@@ -831,7 +674,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">は本物の</t>
@@ -850,7 +693,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">じゃなかったんだね…</t>
@@ -858,6 +701,166 @@
   </si>
   <si>
     <t xml:space="preserve">I see... so you weren't my real #brother2 after all... </t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">왜 그래, #brother2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네 머리모양을 바꿨으면 좋겠어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그래♪ 이 머리 어울려, #brother2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#brother2? 정말로 우리 #brother2야?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뿌뿌- 틀렸어.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이런 거, 진짜 #brother2가 아니야!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">에, 진짜…?!
+그럼, 우리 #brother2라면 무조건 맞힐 수 있는 간단한 퀴즈를 낼게!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문제: 이 중에 「연상의 여동생」의 의미는 뭘까요?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생이별한 피가 이어진 연하의 여성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생이별한 피가 이어진 연상의 여성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생이별한 피가 이어지지 않은 연하의 여성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생이별한 피가 이어지지 않은 연상의 여성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 중에 정답은 없어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">딩동. 역시 우리 #brother2야! 그럼, 다음 문제를 낼게!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문제: 내가 #brother2의 방에 몰래 숨긴 건 뭘까요?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비상용 과자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#brother2를 위해 사랑을 담아 만든 도시락</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#brother2를 향한 사랑이 넘치는 편지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지금까지의 추억을 가득 담은 타임 캡슐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">식칼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아무것도 숨기지 않았어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전부 다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문제: 가장 강한 방패는 뭘까요?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강철 방패</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마법 방패</t>
+  </si>
+  <si>
+    <t xml:space="preserve">루비너스 방패</t>
+  </si>
+  <si>
+    <t xml:space="preserve">에테르 방패</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무적의 방패</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여동생의 웃는 얼굴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문제: 내가 좋아하는 쁘띠는?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">평범한 쁘띠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">베스쁘띠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 쁘띠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">메탈 쁘띠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">킹 쁘띠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엔젤 쁘띠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쁘띠 달팽이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미아 쁘띠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">딩동. 역시 우리 #brother2야! 그럼, 마지막 문제를 낼게!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문제: 내가 #brother2에게 가장 바라는 건 뭘까요?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">함께 시간을 많이 보내는 것</t>
+  </si>
+  <si>
+    <t xml:space="preserve">항상 함께 있어주는 것</t>
+  </si>
+  <si>
+    <t xml:space="preserve">절대로 배신하지 않는 것</t>
+  </si>
+  <si>
+    <t xml:space="preserve">머리를 쓰담쓰담 해주는 것</t>
+  </si>
+  <si>
+    <t xml:space="preserve">야단쳐 주는 것</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무한한 용돈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">딩동. 역시 우리 #brother2야!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다 맞힌 거 축하해. 그럼 용돈 줘 #brother2♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,000 오렌을 준다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지금은 돈이 없어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">와아, 진짜 #brother2 찾-았다!</t>
   </si>
   <si>
     <t xml:space="preserve">그렇구나… #brother2는 진짜 #brother2가 아니구나…</t>
@@ -881,25 +884,25 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
+      <family/>
       <charset val="128"/>
     </font>
     <font>
@@ -945,7 +948,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -954,90 +957,86 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="14">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1051,13 +1050,13 @@
   <dxfs count="1">
     <dxf>
       <font>
+        <color rgb="FFCC0000"/>
         <name val="游ゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
-        <family val="2"/>
-        <color rgb="FFCC0000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -1233,32 +1232,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P112" activeCellId="0" sqref="P112"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K119" sqref="K119"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="7.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="53.28"/>
+    <col min="1" max="1" width="14.41" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.57" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.99" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.09" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42.14" style="2" customWidth="1"/>
+    <col min="10" max="10" width="53.28" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1293,23 +1292,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H2" s="1" t="n">
-        <f aca="false">MAX(H4:H1048576)</f>
+    <row r="2" ht="12.8">
+      <c r="H2" s="1">
+        <f>MAX(H4:H1048576)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="12.8">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="12.8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="12.8">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1317,12 +1316,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="12.8">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" ht="12.8">
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1330,35 +1329,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="12.8">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="13.8">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="13.8">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="13.8">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="12.8">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="1" t="n">
+    <row r="16" ht="12.8">
+      <c r="H16" s="1">
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -1367,1282 +1366,1282 @@
       <c r="J16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" ht="13.8">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1">
+        <v>56</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" ht="12.8">
+      <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G18" s="5"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="12.8">
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="12.8">
       <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" ht="12.8">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="12.8">
+      <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="1" t="s">
+    <row r="25" ht="12.8">
+      <c r="H25" s="1">
+        <v>57</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="J25" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="K25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" ht="12.8">
+      <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" ht="13.8">
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" ht="12.8">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="1" t="n">
+    <row r="29" ht="12.8">
+      <c r="H29" s="1">
         <v>2</v>
       </c>
       <c r="I29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" ht="13.8">
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" ht="13.8">
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" ht="12.8">
       <c r="D32" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" ht="12.8">
       <c r="D33" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" ht="12.8">
       <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" ht="12.8">
+      <c r="H37" s="1">
+        <v>4</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" ht="12.8">
+      <c r="H38" s="1">
+        <v>5</v>
+      </c>
+      <c r="I38" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="J38" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="K38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" ht="12.8">
+      <c r="D39" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I37" s="11" t="s">
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" ht="12.8">
+      <c r="B40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" ht="12.8">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" ht="12.8">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" ht="12.8">
+      <c r="A43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" ht="43.25">
+      <c r="H44" s="1">
+        <v>6</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K37" s="0" t="s">
+      <c r="K44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" ht="12.8">
+      <c r="H45" s="1">
+        <v>7</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I38" s="11" t="s">
+      <c r="J45" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="K45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" ht="12.8">
+      <c r="B46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="1">
+        <v>8</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K38" s="0" t="s">
+      <c r="J46" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="1" t="s">
+      <c r="K46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" ht="12.8">
+      <c r="B47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="1">
+        <v>9</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I44" s="5" t="s">
+      <c r="J47" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" ht="12.8">
+      <c r="B48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="1">
+        <v>10</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="J48" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="K48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" ht="12.8">
+      <c r="B49" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H49" s="1">
         <v>11</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="K49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" ht="12.8">
       <c r="B50" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H50" s="1">
         <v>12</v>
       </c>
       <c r="I50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" ht="12.8">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" ht="12.8">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" ht="12.8">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" ht="15">
+      <c r="D54" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" ht="12.8">
+      <c r="H55" s="1">
+        <v>13</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" ht="12.8">
+      <c r="H56" s="1">
+        <v>14</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" ht="12.8">
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="1">
+        <v>15</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" ht="12.8">
+      <c r="B58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="1">
+        <v>16</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" ht="12.8">
+      <c r="B59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="1">
+        <v>17</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" ht="12.8">
+      <c r="B60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="1">
+        <v>18</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J60" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K50" s="0" t="s">
+      <c r="K60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" ht="12.8">
+      <c r="B61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="1">
+        <v>19</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="J61" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H55" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H56" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" ht="12.8">
       <c r="B62" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H62" s="1">
         <v>20</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="K62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" ht="12.8">
       <c r="B63" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="1">
+        <v>21</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" ht="12.8">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" ht="12.8">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" ht="12.8">
+      <c r="A66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" ht="15">
+      <c r="D67" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" ht="12.8">
+      <c r="H68" s="1">
         <v>22</v>
       </c>
-      <c r="H63" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H68" s="1" t="n">
-        <v>22</v>
-      </c>
       <c r="I68" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K68" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H69" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="K68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" ht="12.8">
+      <c r="H69" s="1">
         <v>23</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+      <c r="K69" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" ht="12.8">
       <c r="B70" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H70" s="1">
         <v>24</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="K70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" ht="12.8">
       <c r="B71" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H71" s="1">
         <v>25</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K71" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="K71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" ht="12.8">
       <c r="B72" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H72" s="1">
         <v>26</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+      <c r="K72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" ht="12.8">
       <c r="B73" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H73" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H73" s="1">
         <v>27</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K73" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="K73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" ht="12.8">
       <c r="B74" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H74" s="1">
         <v>28</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="K74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" ht="12.8">
       <c r="B75" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H75" s="1">
         <v>29</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="K75" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" ht="12.8">
       <c r="I76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" ht="12.8">
       <c r="A77" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="14" t="s">
-        <v>44</v>
+    <row r="78" ht="15">
+      <c r="D78" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H79" s="1" t="n">
+    <row r="79" ht="12.8">
+      <c r="H79" s="1">
         <v>30</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K79" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H80" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="K79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" ht="12.8">
+      <c r="H80" s="1">
         <v>31</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K80" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="K80" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" ht="12.8">
       <c r="B81" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H81" s="1">
         <v>32</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K81" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+      <c r="K81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" ht="12.8">
       <c r="B82" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H82" s="1">
         <v>33</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="K82" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="K82" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" ht="12.8">
       <c r="B83" s="1" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H83" s="1">
         <v>34</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K83" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+      <c r="K83" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" ht="12.8">
       <c r="B84" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H84" s="1">
         <v>35</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K84" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+      <c r="K84" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" ht="12.8">
       <c r="B85" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H85" s="1">
         <v>36</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="K85" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="K85" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" ht="12.8">
       <c r="B86" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H86" s="1">
         <v>37</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K86" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="K86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" ht="12.8">
       <c r="B87" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H87" s="1">
         <v>38</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K87" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+      <c r="K87" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" ht="12.8">
       <c r="B88" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H88" s="1">
         <v>39</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K88" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+      <c r="K88" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" ht="12.8">
       <c r="I89" s="1"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" ht="12.8">
       <c r="I90" s="1"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" ht="12.8">
       <c r="A91" s="1" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D92" s="14" t="s">
+    <row r="92" ht="15">
+      <c r="D92" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" ht="12.8">
+      <c r="H93" s="1">
+        <v>40</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" ht="12.8">
+      <c r="H94" s="1">
+        <v>41</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K94" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" ht="12.8">
+      <c r="B95" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" s="1">
+        <v>42</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K95" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" ht="12.8">
+      <c r="B96" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" s="1">
+        <v>43</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K96" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" ht="12.8">
+      <c r="B97" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" s="1">
         <v>44</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H93" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K93" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H94" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K94" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H95" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K95" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K96" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" s="1" t="n">
-        <v>44</v>
-      </c>
       <c r="I97" s="5" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K97" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+      <c r="K97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" ht="12.8">
       <c r="B98" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H98" s="1">
         <v>45</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K98" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="K98" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" ht="12.8">
       <c r="B99" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H99" s="1">
         <v>46</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="K99" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="K99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" ht="12.8">
       <c r="B100" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H100" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H100" s="1">
         <v>47</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="K100" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+      <c r="K100" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" ht="12.8">
       <c r="B101" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H101" s="1">
         <v>48</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K101" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+      <c r="K101" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" ht="12.8">
       <c r="B102" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H102" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H102" s="1">
         <v>49</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K102" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="K102" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" ht="12.8">
       <c r="I103" s="1"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" ht="12.8">
       <c r="A105" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D106" s="14" t="s">
-        <v>44</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" ht="15">
+      <c r="D106" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H107" s="1" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" ht="12.8">
+      <c r="H107" s="1">
         <v>50</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K107" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H108" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="K107" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" ht="13.4">
+      <c r="H108" s="1">
         <v>51</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K108" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+      <c r="K108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" ht="12.8">
       <c r="B109" s="1" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H109" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H109" s="1">
         <v>52</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K109" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K109" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" ht="12.8">
       <c r="B110" s="1" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H110" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H110" s="1">
         <v>53</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K110" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+      <c r="K110" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" ht="12.8">
       <c r="A112" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H113" s="1" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" ht="13.4">
+      <c r="H113" s="1">
         <v>54</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="K113" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="K113" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="114" ht="22.35">
       <c r="D114" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" ht="12.8">
       <c r="D115" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" ht="12.8">
       <c r="B117" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" ht="12.8">
       <c r="A118" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H119" s="1" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" ht="12.8">
+      <c r="H119" s="1">
         <v>55</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="K119" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>150</v>
+      </c>
+      <c r="K119" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="120" ht="12.8">
       <c r="B120" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H20:H31 I32 H4:H17 I18:I19 H33:H1048576">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/Mod_Korean/Lang/KR/Dialog/Drama/olderyoungersister.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/olderyoungersister.xlsx
@@ -111,6 +111,12 @@
     <t xml:space="preserve">What's up, #brother2? </t>
   </si>
   <si>
+    <t xml:space="preserve">inject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique</t>
+  </si>
+  <si>
     <t xml:space="preserve">change</t>
   </si>
   <si>
@@ -121,12 +127,6 @@
   </si>
   <si>
     <t xml:space="preserve">I want you to change your hairstyle. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">inject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique</t>
   </si>
   <si>
     <t xml:space="preserve">choice/bye</t>
@@ -1236,12 +1236,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K119" sqref="K119"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K120" sqref="K120"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -1370,253 +1370,237 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" ht="13.8">
-      <c r="B17" s="1" t="s">
+    <row r="17" ht="12.8">
+      <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="5"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" ht="13.8">
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1">
         <v>56</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="I18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="18" ht="12.8">
-      <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
     <row r="19" ht="12.8">
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="G19" s="5"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" ht="12.8">
       <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" ht="12.8">
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" ht="12.8">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" ht="12.8">
-      <c r="D24" s="1" t="s">
+    <row r="23" ht="12.8">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" ht="12.8">
+      <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" ht="12.8">
-      <c r="H25" s="1">
+    <row r="26" ht="12.8">
+      <c r="H26" s="1">
         <v>57</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J26" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K26" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" ht="12.8">
-      <c r="B26" s="1" t="s">
+    <row r="27" ht="12.8">
+      <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" ht="13.8">
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" ht="12.8">
-      <c r="A28" s="1" t="s">
+    <row r="28" ht="13.8">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" ht="12.8">
+      <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" ht="12.8">
-      <c r="H29" s="1">
+    <row r="30" ht="12.8">
+      <c r="H30" s="1">
         <v>2</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K30" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" ht="13.8">
-      <c r="I30" s="8"/>
-    </row>
     <row r="31" ht="13.8">
-      <c r="B31" s="1" t="s">
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" ht="13.8">
+      <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="D32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="1">
         <v>3</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K32" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="32" ht="12.8">
-      <c r="D32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
     </row>
     <row r="33" ht="12.8">
       <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" ht="12.8">
+      <c r="D34" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" ht="12.8">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="1" t="s">
+    <row r="36" ht="12.8">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="37" ht="12.8">
-      <c r="H37" s="1">
-        <v>4</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="38" ht="12.8">
       <c r="H38" s="1">
+        <v>4</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" ht="12.8">
+      <c r="H39" s="1">
         <v>5</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J39" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K39" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" ht="12.8">
-      <c r="D39" s="1" t="s">
+    <row r="40" ht="12.8">
+      <c r="D40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" ht="12.8">
-      <c r="B40" s="1" t="s">
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" ht="12.8">
+      <c r="B41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" ht="12.8">
       <c r="I41" s="1"/>
     </row>
     <row r="42" ht="12.8">
       <c r="I42" s="1"/>
     </row>
     <row r="43" ht="12.8">
-      <c r="A43" s="1" t="s">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" ht="12.8">
+      <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" ht="43.25">
-      <c r="H44" s="1">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" ht="43.25">
+      <c r="H45" s="1">
         <v>6</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K45" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="45" ht="12.8">
-      <c r="H45" s="1">
+    <row r="46" ht="12.8">
+      <c r="H46" s="1">
         <v>7</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J46" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K46" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="46" ht="12.8">
-      <c r="B46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="1">
-        <v>8</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K46" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="47" ht="12.8">
@@ -1624,19 +1608,19 @@
         <v>38</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H47" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" ht="12.8">
@@ -1644,130 +1628,130 @@
         <v>38</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H48" s="1">
+        <v>9</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" ht="12.8">
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="1">
         <v>10</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K49" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="49" ht="12.8">
-      <c r="B49" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="1">
-        <v>11</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K49" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="50" ht="12.8">
       <c r="B50" s="5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H50" s="1">
+        <v>11</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" ht="12.8">
+      <c r="B51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="1">
         <v>12</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K51" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="51" ht="12.8">
-      <c r="I51" s="1"/>
     </row>
     <row r="52" ht="12.8">
       <c r="I52" s="1"/>
     </row>
     <row r="53" ht="12.8">
-      <c r="A53" s="1" t="s">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" ht="12.8">
+      <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" ht="15">
-      <c r="D54" s="13" t="s">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" ht="15">
+      <c r="D55" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" ht="12.8">
-      <c r="H55" s="1">
-        <v>13</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K55" t="s">
-        <v>166</v>
-      </c>
+      <c r="I55" s="1"/>
     </row>
     <row r="56" ht="12.8">
       <c r="H56" s="1">
+        <v>13</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" ht="12.8">
+      <c r="H57" s="1">
         <v>14</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="J57" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K57" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="57" ht="12.8">
-      <c r="B57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="1">
-        <v>15</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K57" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="58" ht="12.8">
@@ -1775,19 +1759,19 @@
         <v>38</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H58" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" ht="12.8">
@@ -1795,19 +1779,19 @@
         <v>38</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H59" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" ht="12.8">
@@ -1815,19 +1799,19 @@
         <v>38</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H60" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" ht="12.8">
@@ -1835,130 +1819,130 @@
         <v>38</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H61" s="1">
+        <v>18</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" ht="12.8">
+      <c r="B62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="1">
         <v>19</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J61" s="5" t="s">
+      <c r="J62" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K62" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="62" ht="12.8">
-      <c r="B62" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="1">
-        <v>20</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K62" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="63" ht="12.8">
       <c r="B63" s="5" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="1">
+        <v>20</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" ht="12.8">
+      <c r="B64" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="1">
         <v>21</v>
       </c>
-      <c r="H63" s="1">
-        <v>21</v>
-      </c>
-      <c r="I63" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K64" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="64" ht="12.8">
-      <c r="I64" s="1"/>
     </row>
     <row r="65" ht="12.8">
       <c r="I65" s="1"/>
     </row>
     <row r="66" ht="12.8">
-      <c r="A66" s="1" t="s">
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" ht="12.8">
+      <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" ht="15">
-      <c r="D67" s="13" t="s">
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" ht="15">
+      <c r="D68" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" ht="12.8">
-      <c r="H68" s="1">
-        <v>22</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K68" t="s">
-        <v>166</v>
-      </c>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" ht="12.8">
       <c r="H69" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" ht="12.8">
+      <c r="H70" s="1">
+        <v>23</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J70" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K70" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="70" ht="12.8">
-      <c r="B70" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70" s="1">
-        <v>24</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K70" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="71" ht="12.8">
@@ -1966,19 +1950,19 @@
         <v>38</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H71" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" ht="12.8">
@@ -1986,19 +1970,19 @@
         <v>38</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H72" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" ht="12.8">
@@ -2006,19 +1990,19 @@
         <v>38</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H73" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" ht="12.8">
@@ -2026,106 +2010,106 @@
         <v>38</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H74" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="K74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" ht="12.8">
       <c r="B75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="1">
+        <v>28</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K75" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" ht="12.8">
+      <c r="B76" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" s="1">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="1">
         <v>29</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J76" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K76" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="76" ht="12.8">
-      <c r="I76" s="1"/>
-    </row>
     <row r="77" ht="12.8">
-      <c r="A77" s="1" t="s">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" ht="12.8">
+      <c r="A78" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" ht="15">
-      <c r="D78" s="13" t="s">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" ht="15">
+      <c r="D79" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" ht="12.8">
-      <c r="H79" s="1">
-        <v>30</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K79" t="s">
-        <v>166</v>
-      </c>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" ht="12.8">
       <c r="H80" s="1">
+        <v>30</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" ht="12.8">
+      <c r="H81" s="1">
         <v>31</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J81" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K81" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="81" ht="12.8">
-      <c r="B81" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81" s="1">
-        <v>32</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K81" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="82" ht="12.8">
@@ -2133,59 +2117,59 @@
         <v>38</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H82" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" ht="12.8">
       <c r="B83" s="1" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H83" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" ht="12.8">
       <c r="B84" s="1" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H84" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" ht="12.8">
@@ -2193,40 +2177,39 @@
         <v>38</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H85" s="1">
+        <v>35</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K85" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" ht="12.8">
+      <c r="B86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="1">
         <v>36</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J85" s="5" t="s">
+      <c r="J86" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K86" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="86" ht="12.8">
-      <c r="B86" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H86" s="1">
-        <v>37</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K86" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="87" ht="12.8">
@@ -2235,19 +2218,19 @@
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H87" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="K87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" ht="12.8">
@@ -2256,128 +2239,129 @@
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H88" s="1">
+        <v>38</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K88" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" ht="12.8">
+      <c r="B89" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" s="1">
         <v>39</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J89" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K89" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="89" ht="12.8">
-      <c r="I89" s="1"/>
     </row>
     <row r="90" ht="12.8">
       <c r="I90" s="1"/>
     </row>
     <row r="91" ht="12.8">
-      <c r="A91" s="1" t="s">
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" ht="12.8">
+      <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" ht="15">
-      <c r="D92" s="13" t="s">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" ht="15">
+      <c r="D93" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" ht="12.8">
-      <c r="H93" s="1">
-        <v>40</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K93" t="s">
-        <v>191</v>
-      </c>
+      <c r="I93" s="1"/>
     </row>
     <row r="94" ht="12.8">
       <c r="H94" s="1">
+        <v>40</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K94" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" ht="12.8">
+      <c r="H95" s="1">
         <v>41</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="J95" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K95" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="95" ht="12.8">
-      <c r="B95" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H95" s="1">
-        <v>42</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K95" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="96" ht="12.8">
       <c r="B96" s="1" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H96" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" ht="12.8">
       <c r="B97" s="1" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H97" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" ht="12.8">
@@ -2385,19 +2369,19 @@
         <v>38</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H98" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="K98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" ht="12.8">
@@ -2405,19 +2389,19 @@
         <v>38</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H99" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K99" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" ht="12.8">
@@ -2425,40 +2409,39 @@
         <v>38</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H100" s="1">
+        <v>46</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" ht="12.8">
+      <c r="B101" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" s="1">
         <v>47</v>
       </c>
-      <c r="I100" s="5" t="s">
+      <c r="I101" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J100" s="5" t="s">
+      <c r="J101" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K101" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="101" ht="12.8">
-      <c r="B101" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101" s="1">
-        <v>48</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K101" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="102" ht="12.8">
@@ -2467,175 +2450,196 @@
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H102" s="1">
+        <v>48</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K102" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="103" ht="12.8">
+      <c r="B103" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="1">
         <v>49</v>
       </c>
-      <c r="I102" s="5" t="s">
+      <c r="I103" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="J103" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K103" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="103" ht="12.8">
-      <c r="I103" s="1"/>
-    </row>
-    <row r="105" ht="12.8">
-      <c r="A105" s="1" t="s">
+    <row r="104" ht="12.8">
+      <c r="I104" s="1"/>
+    </row>
+    <row r="106" ht="12.8">
+      <c r="A106" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="106" ht="15">
-      <c r="D106" s="13" t="s">
+    <row r="107" ht="15">
+      <c r="D107" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="107" ht="12.8">
-      <c r="H107" s="1">
+    <row r="108" ht="12.8">
+      <c r="H108" s="1">
         <v>50</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="I108" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="J108" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="K107" t="s">
+      <c r="K108" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="108" ht="13.4">
-      <c r="H108" s="1">
+    <row r="109" ht="13.4">
+      <c r="H109" s="1">
         <v>51</v>
       </c>
-      <c r="I108" s="6" t="s">
+      <c r="I109" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J109" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K108" t="s">
+      <c r="K109" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="109" ht="12.8">
-      <c r="B109" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H109" s="1">
-        <v>52</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K109" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="110" ht="12.8">
       <c r="B110" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110" s="1">
+        <v>52</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K110" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="111" ht="12.8">
+      <c r="B111" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H110" s="1">
+      <c r="D111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H111" s="1">
         <v>53</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J110" s="2" t="s">
+      <c r="J111" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K110" t="s">
+      <c r="K111" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="112" ht="12.8">
-      <c r="A112" s="1" t="s">
+    <row r="113" ht="12.8">
+      <c r="A113" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="113" ht="13.4">
-      <c r="H113" s="1">
+    <row r="114" ht="13.4">
+      <c r="H114" s="1">
         <v>54</v>
       </c>
-      <c r="I113" s="6" t="s">
+      <c r="I114" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J113" s="9" t="s">
+      <c r="J114" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K114" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="114" ht="22.35">
-      <c r="D114" s="5" t="s">
+    <row r="115" ht="22.35">
+      <c r="D115" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E115" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I114" s="6"/>
-    </row>
-    <row r="115" ht="12.8">
-      <c r="D115" s="1" t="s">
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" ht="12.8">
+      <c r="D116" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="117" ht="12.8">
-      <c r="B117" s="1" t="s">
+    <row r="118" ht="12.8">
+      <c r="B118" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="118" ht="12.8">
-      <c r="A118" s="1" t="s">
+    <row r="119" ht="12.8">
+      <c r="A119" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="119" ht="12.8">
-      <c r="H119" s="1">
+    <row r="120" ht="12.8">
+      <c r="H120" s="1">
         <v>55</v>
       </c>
-      <c r="I119" s="6" t="s">
+      <c r="I120" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J119" s="9" t="s">
+      <c r="J120" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="K119" t="s">
+      <c r="K120" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="120" ht="12.8">
-      <c r="B120" s="1" t="s">
+    <row r="121" ht="12.8">
+      <c r="B121" s="1" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H20:H31 I32 H4:H17 I18:I19 H33:H1048576">
+  <conditionalFormatting sqref="H21:H32 I33 H4:H18 I19:I20 H34:H1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Mod_Korean/Lang/KR/Dialog/Drama/olderyoungersister.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/olderyoungersister.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="206">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">main2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survival</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;=,olderyoungersister,1</t>
@@ -1238,10 +1241,10 @@
   </sheetPr>
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K120" sqref="K120"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="D19:E19"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -1308,25 +1311,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" ht="12.8">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="8" ht="12.8">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="12.8">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="12.8">
       <c r="D10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="12.8">
@@ -1361,43 +1372,43 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" ht="12.8">
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" ht="13.8">
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" s="1">
         <v>56</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" ht="12.8">
@@ -1408,7 +1419,7 @@
     </row>
     <row r="20" ht="12.8">
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1416,20 +1427,20 @@
     </row>
     <row r="21" ht="12.8">
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="12.8">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="12.8">
       <c r="D25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="12.8">
@@ -1437,18 +1448,18 @@
         <v>57</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" ht="12.8">
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="13.8">
@@ -1459,7 +1470,7 @@
     </row>
     <row r="29" ht="12.8">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="12.8">
@@ -1467,13 +1478,13 @@
         <v>2</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" ht="13.8">
@@ -1481,27 +1492,27 @@
     </row>
     <row r="32" ht="13.8">
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H32" s="1">
         <v>3</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" ht="12.8">
       <c r="D33" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1509,18 +1520,18 @@
     </row>
     <row r="34" ht="12.8">
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="12.8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="12.8">
@@ -1528,13 +1539,13 @@
         <v>4</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" ht="12.8">
@@ -1542,24 +1553,24 @@
         <v>5</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" ht="12.8">
       <c r="D40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I40" s="11"/>
     </row>
     <row r="41" ht="12.8">
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I41" s="1"/>
     </row>
@@ -1571,7 +1582,7 @@
     </row>
     <row r="44" ht="12.8">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I44" s="1"/>
     </row>
@@ -1580,13 +1591,13 @@
         <v>6</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" ht="12.8">
@@ -1594,115 +1605,115 @@
         <v>7</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" ht="12.8">
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H47" s="1">
         <v>8</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" ht="12.8">
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H48" s="1">
         <v>9</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" ht="12.8">
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H49" s="1">
         <v>10</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" ht="12.8">
       <c r="B50" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H50" s="1">
         <v>11</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" ht="12.8">
       <c r="B51" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H51" s="1">
         <v>12</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" ht="12.8">
@@ -1713,16 +1724,16 @@
     </row>
     <row r="54" ht="12.8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I54" s="1"/>
     </row>
     <row r="55" ht="15">
       <c r="D55" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I55" s="1"/>
     </row>
@@ -1731,13 +1742,13 @@
         <v>13</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" ht="12.8">
@@ -1745,155 +1756,155 @@
         <v>14</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" ht="12.8">
       <c r="B58" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H58" s="1">
         <v>15</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" ht="12.8">
       <c r="B59" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H59" s="1">
         <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" ht="12.8">
       <c r="B60" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H60" s="1">
         <v>17</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" ht="12.8">
       <c r="B61" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H61" s="1">
         <v>18</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" ht="12.8">
       <c r="B62" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H62" s="1">
         <v>19</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" ht="12.8">
       <c r="B63" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H63" s="1">
         <v>20</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" ht="12.8">
       <c r="B64" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H64" s="1">
         <v>21</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" ht="12.8">
@@ -1904,16 +1915,16 @@
     </row>
     <row r="67" ht="12.8">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I67" s="1"/>
     </row>
     <row r="68" ht="15">
       <c r="D68" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I68" s="1"/>
     </row>
@@ -1922,13 +1933,13 @@
         <v>22</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" ht="12.8">
@@ -1936,134 +1947,134 @@
         <v>23</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" ht="12.8">
       <c r="B71" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H71" s="1">
         <v>24</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" ht="12.8">
       <c r="B72" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H72" s="1">
         <v>25</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" ht="12.8">
       <c r="B73" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H73" s="1">
         <v>26</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" ht="12.8">
       <c r="B74" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H74" s="1">
         <v>27</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" ht="12.8">
       <c r="B75" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H75" s="1">
         <v>28</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K75" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" ht="12.8">
       <c r="B76" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H76" s="1">
         <v>29</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" ht="12.8">
@@ -2071,16 +2082,16 @@
     </row>
     <row r="78" ht="12.8">
       <c r="A78" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I78" s="1"/>
     </row>
     <row r="79" ht="15">
       <c r="D79" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I79" s="1"/>
     </row>
@@ -2089,13 +2100,13 @@
         <v>30</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" ht="12.8">
@@ -2103,176 +2114,176 @@
         <v>31</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" ht="12.8">
       <c r="B82" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H82" s="1">
         <v>32</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K82" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" ht="12.8">
       <c r="B83" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H83" s="1">
         <v>33</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" ht="12.8">
       <c r="B84" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H84" s="1">
         <v>34</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" ht="12.8">
       <c r="B85" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H85" s="1">
         <v>35</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K85" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" ht="12.8">
       <c r="B86" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H86" s="1">
         <v>36</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" ht="12.8">
       <c r="B87" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H87" s="1">
         <v>37</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" ht="12.8">
       <c r="B88" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H88" s="1">
         <v>38</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" ht="12.8">
       <c r="B89" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H89" s="1">
         <v>39</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" ht="12.8">
@@ -2283,16 +2294,16 @@
     </row>
     <row r="92" ht="12.8">
       <c r="A92" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I92" s="1"/>
     </row>
     <row r="93" ht="15">
       <c r="D93" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I93" s="1"/>
     </row>
@@ -2301,13 +2312,13 @@
         <v>40</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" ht="12.8">
@@ -2315,175 +2326,175 @@
         <v>41</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" ht="12.8">
       <c r="B96" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H96" s="1">
         <v>42</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" ht="12.8">
       <c r="B97" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H97" s="1">
         <v>43</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" ht="12.8">
       <c r="B98" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H98" s="1">
         <v>44</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" ht="12.8">
       <c r="B99" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H99" s="1">
         <v>45</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K99" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" ht="12.8">
       <c r="B100" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H100" s="1">
         <v>46</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K100" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" ht="12.8">
       <c r="B101" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H101" s="1">
         <v>47</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K101" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" ht="12.8">
       <c r="B102" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H102" s="1">
         <v>48</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K102" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" ht="12.8">
       <c r="B103" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H103" s="1">
         <v>49</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K103" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" ht="12.8">
@@ -2491,15 +2502,15 @@
     </row>
     <row r="106" ht="12.8">
       <c r="A106" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" ht="15">
       <c r="D107" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" ht="12.8">
@@ -2507,13 +2518,13 @@
         <v>50</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K108" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" ht="13.4">
@@ -2521,61 +2532,61 @@
         <v>51</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K109" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" ht="12.8">
       <c r="B110" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H110" s="1">
         <v>52</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K110" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" ht="12.8">
       <c r="B111" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H111" s="1">
         <v>53</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K111" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" ht="12.8">
       <c r="A113" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" ht="13.4">
@@ -2583,40 +2594,40 @@
         <v>54</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K114" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" ht="22.35">
       <c r="D115" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I115" s="6"/>
     </row>
     <row r="116" ht="12.8">
       <c r="D116" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" ht="12.8">
       <c r="B118" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" ht="12.8">
       <c r="A119" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" ht="12.8">
@@ -2624,18 +2635,18 @@
         <v>55</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K120" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" ht="12.8">
       <c r="B121" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
